--- a/PC_balanced_GPU_upsampled.xlsx
+++ b/PC_balanced_GPU_upsampled.xlsx
@@ -1,3 +1,18 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="InitializationSheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -390,4 +405,22 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/PC_balanced_GPU_upsampled.xlsx
+++ b/PC_balanced_GPU_upsampled.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="InitializationSheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="InitializationSheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
